--- a/backend/scrapeworker/file_types/__fixtures__/test.xlsx
+++ b/backend/scrapeworker/file_types/__fixtures__/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffloiola/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C38029-916D-6E43-9B61-17FB433500CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A545E66F-260B-9D4B-9EF9-C14AB207A52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{3AB651C4-D35D-D542-9ED9-B7AE0BFAE6E9}"/>
   </bookViews>
